--- a/static/data/modelo.xlsx
+++ b/static/data/modelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dados\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4f77498e1fb0bfd/Programação Python/gean/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43C413A-94AE-4519-9915-3C44D8AA9DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F43C413A-94AE-4519-9915-3C44D8AA9DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93EC9367-4A0C-4ABD-A893-403778C6B508}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D448B58F-1676-4E29-A9FC-ADBF49D07378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D448B58F-1676-4E29-A9FC-ADBF49D07378}"/>
   </bookViews>
   <sheets>
     <sheet name="Medições" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Medição</t>
   </si>
@@ -203,6 +203,39 @@
   </si>
   <si>
     <t>Incerteza Expandida</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zr</t>
   </si>
 </sst>
 </file>
@@ -580,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E120E2E-111D-4582-8553-521B5566BC6A}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -634,10 +667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016CFF7B-5D1F-40E5-89B7-018688F16FC3}">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,232 +697,287 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/modelo.xlsx
+++ b/static/data/modelo.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4f77498e1fb0bfd/Programação Python/gean/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F43C413A-94AE-4519-9915-3C44D8AA9DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93EC9367-4A0C-4ABD-A893-403778C6B508}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F43C413A-94AE-4519-9915-3C44D8AA9DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{157741E7-D1C0-481B-8E9C-515008E13B30}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D448B58F-1676-4E29-A9FC-ADBF49D07378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D448B58F-1676-4E29-A9FC-ADBF49D07378}"/>
   </bookViews>
   <sheets>
     <sheet name="Medições" sheetId="1" r:id="rId1"/>
     <sheet name="Elementos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
-    <t>Medição</t>
-  </si>
-  <si>
-    <t>Elemento</t>
-  </si>
-  <si>
     <t>As</t>
   </si>
   <si>
@@ -193,18 +187,6 @@
     <t>Zn</t>
   </si>
   <si>
-    <t>Incerteza Padrão</t>
-  </si>
-  <si>
-    <t>Intervalo de Confiança</t>
-  </si>
-  <si>
-    <t>Incerteza Expandida Combinada</t>
-  </si>
-  <si>
-    <t>Incerteza Expandida</t>
-  </si>
-  <si>
     <t>Au</t>
   </si>
   <si>
@@ -236,6 +218,24 @@
   </si>
   <si>
     <t>Zr</t>
+  </si>
+  <si>
+    <t>ELEMENTO</t>
+  </si>
+  <si>
+    <t>MEDIÇÃO</t>
+  </si>
+  <si>
+    <t>INCERTEZA PADRÃO</t>
+  </si>
+  <si>
+    <t>INCERTEZA EXPANDIDA</t>
+  </si>
+  <si>
+    <t>INCERTEZA EXPANDIDA COMBINADA</t>
+  </si>
+  <si>
+    <t>INTERVALO DE CONFIANÇA</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -276,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -284,19 +289,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,38 +717,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E120E2E-111D-4582-8553-521B5566BC6A}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +759,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81D42AEB-8DB2-4D7E-A3B4-A89E32C374D0}">
           <x14:formula1>
-            <xm:f>Elementos!$A$2:$A$50</xm:f>
+            <xm:f>Elementos!$A$2:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -669,315 +773,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016CFF7B-5D1F-40E5-89B7-018688F16FC3}">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/modelo.xlsx
+++ b/static/data/modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4f77498e1fb0bfd/Programação Python/gean/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F43C413A-94AE-4519-9915-3C44D8AA9DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{157741E7-D1C0-481B-8E9C-515008E13B30}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{F43C413A-94AE-4519-9915-3C44D8AA9DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E9419B1-02B5-4C14-9006-F6304F03235E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D448B58F-1676-4E29-A9FC-ADBF49D07378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>As</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>INTERVALO DE CONFIANÇA</t>
+  </si>
+  <si>
+    <t>Nb</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +762,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81D42AEB-8DB2-4D7E-A3B4-A89E32C374D0}">
           <x14:formula1>
-            <xm:f>Elementos!$A$2:$A$61</xm:f>
+            <xm:f>Elementos!$A$2:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -771,10 +774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016CFF7B-5D1F-40E5-89B7-018688F16FC3}">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,131 +959,136 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
     </row>
